--- a/R/data/dictionaries/1_0/1_0_non_repeated_measures.xlsx
+++ b/R/data/dictionaries/1_0/1_0_non_repeated_measures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sido/RProjects/analysis-protocols/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96465699-1C0D-EA46-976D-AC6B4DE773F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A99BE9B-CC6C-424E-8ECC-6C1093FE3EDE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="6940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1846" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1846" uniqueCount="457">
   <si>
     <t>table</t>
   </si>
@@ -1392,9 +1392,6 @@
   </si>
   <si>
     <t>MAR (Medically Assisted Reproduction)</t>
-  </si>
-  <si>
-    <t>label</t>
   </si>
 </sst>
 </file>
@@ -1966,7 +1963,7 @@
   <dimension ref="A1:BG109"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
@@ -1989,7 +1986,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>457</v>
+        <v>4</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>

--- a/R/data/dictionaries/1_0/1_0_non_repeated_measures.xlsx
+++ b/R/data/dictionaries/1_0/1_0_non_repeated_measures.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sido/RProjects/analysis-protocols/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sido/RProjects/analysis-protocols/R/data/dictionaries/1_0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A99BE9B-CC6C-424E-8ECC-6C1093FE3EDE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50C36FF-FB93-3A42-97D2-3A69463EE99B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="6940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1846" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1846" uniqueCount="458">
   <si>
     <t>table</t>
   </si>
@@ -1392,6 +1392,9 @@
   </si>
   <si>
     <t>MAR (Medically Assisted Reproduction)</t>
+  </si>
+  <si>
+    <t>label</t>
   </si>
 </sst>
 </file>
@@ -1986,7 +1989,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>4</v>
+        <v>457</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>

--- a/R/data/dictionaries/1_0/1_0_non_repeated_measures.xlsx
+++ b/R/data/dictionaries/1_0/1_0_non_repeated_measures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sido/RProjects/analysis-protocols/R/data/dictionaries/1_0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69127F7B-D7E8-F846-82E2-89A29F90978F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDDE4B4-DCBC-D044-A619-B731A82E3DC5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -1950,7 +1950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -3658,8 +3658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D472"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A18" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
